--- a/회사 요청 엑셀/Krone Order_20250930.xlsx
+++ b/회사 요청 엑셀/Krone Order_20250930.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EIBE\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mymain\main\회사 요청 엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14068333-A6AD-4DF4-85B2-27073C5EB105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131CF526-81F0-416A-AF96-22458AE8ECA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="14610" xr2:uid="{B983DBE1-65A4-4141-9DD4-4BA877F3B875}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{B983DBE1-65A4-4141-9DD4-4BA877F3B875}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11045,9 +11045,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11085,7 +11085,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -11191,7 +11191,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11333,7 +11333,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11343,11 +11343,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AEF3B8-64DD-4B39-B818-29BE180CD812}">
   <dimension ref="A1:Q615"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="102.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="51.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
